--- a/bellabeat_viz_sheet.xlsx
+++ b/bellabeat_viz_sheet.xlsx
@@ -8,28 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1bra\Documents\GitHub\bellabeat_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8488684-4D9D-4760-A2B0-0A580EB70A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BC4EF-672A-4DA2-B246-8BC66D91CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="908" xr2:uid="{96EE894B-1173-4472-B7C3-558D6B05614D}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" firstSheet="1" activeTab="5" xr2:uid="{96EE894B-1173-4472-B7C3-558D6B05614D}"/>
   </bookViews>
   <sheets>
-    <sheet name="full_day-partial_day_wear" sheetId="1" r:id="rId1"/>
-    <sheet name="hourly_wear_distribution" sheetId="2" r:id="rId2"/>
-    <sheet name="record_count_per_user_daily" sheetId="3" r:id="rId3"/>
-    <sheet name="count_of_daily_records" sheetId="4" r:id="rId4"/>
-    <sheet name="count_of_daily_records_wide" sheetId="5" r:id="rId5"/>
-    <sheet name="avg_steps_per_hour" sheetId="6" r:id="rId6"/>
-    <sheet name="sleep_record_partic_rate" sheetId="7" r:id="rId7"/>
-    <sheet name="avg_hours_sleep_per_user" sheetId="8" r:id="rId8"/>
-    <sheet name="count_sleep_records_per_dayweek" sheetId="9" r:id="rId9"/>
-    <sheet name="avg_hours_sleep_per_dayweek" sheetId="10" r:id="rId10"/>
-    <sheet name="count_weight_records_per_user" sheetId="11" r:id="rId11"/>
-    <sheet name="count_weight_record_per_dayweek" sheetId="12" r:id="rId12"/>
-    <sheet name="avg_weight_per_user" sheetId="13" r:id="rId13"/>
-    <sheet name="cnt_wt_record_per_user_w_rectyp" sheetId="14" r:id="rId14"/>
-    <sheet name="count_step_sleep_wt_per_id" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId3"/>
+    <sheet name="full_day-partial_day_wear" sheetId="1" r:id="rId4"/>
+    <sheet name="hourly_wear_distribution" sheetId="2" r:id="rId5"/>
+    <sheet name="avg_active_hours_per_id" sheetId="20" r:id="rId6"/>
+    <sheet name="record_count_per_user_daily" sheetId="3" r:id="rId7"/>
+    <sheet name="count_of_daily_records" sheetId="4" r:id="rId8"/>
+    <sheet name="count_of_daily_records_wide" sheetId="5" r:id="rId9"/>
+    <sheet name="avg_steps_per_hour" sheetId="6" r:id="rId10"/>
+    <sheet name="sleep_record_partic_rate" sheetId="7" r:id="rId11"/>
+    <sheet name="avg_hours_sleep_per_user" sheetId="8" r:id="rId12"/>
+    <sheet name="count_sleep_records_per_dayweek" sheetId="9" r:id="rId13"/>
+    <sheet name="avg_hours_sleep_per_dayweek" sheetId="10" r:id="rId14"/>
+    <sheet name="count_weight_records_per_user" sheetId="11" r:id="rId15"/>
+    <sheet name="count_weight_record_per_dayweek" sheetId="12" r:id="rId16"/>
+    <sheet name="avg_weight_per_user" sheetId="13" r:id="rId17"/>
+    <sheet name="cnt_wt_record_per_user_w_rectyp" sheetId="14" r:id="rId18"/>
+    <sheet name="count_step_sleep_wt_per_id" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="30" r:id="rId20"/>
+    <pivotCache cacheId="29" r:id="rId21"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -216,11 +224,32 @@
   <si>
     <t>count_daily_weight_records_per_id</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Full Day</t>
+  </si>
+  <si>
+    <t>Sum of Partial Day</t>
+  </si>
+  <si>
+    <t>24 hr</t>
+  </si>
+  <si>
+    <t>avg_active_hours_per_Id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,8 +279,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,6 +302,2937 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[bellabeat_viz_sheet.xlsx]Sheet2!PivotTable13</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Partial Day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B14F-4D1D-BDDB-871C892C32CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Full Day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B14F-4D1D-BDDB-871C892C32CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="700028520"/>
+        <c:axId val="700029576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700028520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700029576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700029576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700028520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>hourly_wear_distribution!$A$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Less than 1 hr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-2 hr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2-4 hr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-6 hr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6-8 hr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8-10 hr</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10-12 hr</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12-14 hr</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14-16 hr</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-18 hr</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-20 hr</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20-22 hr</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22-24 hr</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24 hr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hourly_wear_distribution!$A$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2725-45AA-BDA4-188BC3C2C733}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="671756824"/>
+        <c:axId val="671752952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="671756824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671752952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671752952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671756824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA80FA9E-8797-A848-C7D8-99E00732ED81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26614A7F-DD3E-EC15-5EC4-A1B7C689DECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kevin Bray" refreshedDate="45114.424874884258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{625880B6-22D8-4CBC-8C1D-90E1FDD35663}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D34" sheet="full_day-partial_day_wear"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1503960366" maxValue="8877689391" count="33">
+        <n v="8877689391"/>
+        <n v="8053475328"/>
+        <n v="1503960366"/>
+        <n v="2022484408"/>
+        <n v="7007744171"/>
+        <n v="3977333714"/>
+        <n v="4388161847"/>
+        <n v="6962181067"/>
+        <n v="2347167796"/>
+        <n v="7086361926"/>
+        <n v="8378563200"/>
+        <n v="5553957443"/>
+        <n v="4702921684"/>
+        <n v="5577150313"/>
+        <n v="4558609924"/>
+        <n v="2873212765"/>
+        <n v="1644430081"/>
+        <n v="4319703577"/>
+        <n v="8583815059"/>
+        <n v="6117666160"/>
+        <n v="3372868164"/>
+        <n v="8253242879"/>
+        <n v="1624580081"/>
+        <n v="6290855005"/>
+        <n v="2026352035"/>
+        <n v="4445114986"/>
+        <n v="2320127002"/>
+        <n v="4057192912"/>
+        <n v="1844505072"/>
+        <n v="6775888955"/>
+        <n v="4020332650"/>
+        <n v="8792009665"/>
+        <n v="1927972279"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Full Day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="30" count="20">
+        <n v="30"/>
+        <n v="27"/>
+        <n v="6"/>
+        <n v="23"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="0"/>
+        <n v="5"/>
+        <n v="3"/>
+        <n v="22"/>
+        <n v="24"/>
+        <n v="2"/>
+        <n v="7"/>
+        <n v="19"/>
+        <n v="18"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="25"/>
+        <n v="20"/>
+        <n v="13"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Partial Day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="31" count="18">
+        <n v="1"/>
+        <n v="4"/>
+        <n v="25"/>
+        <n v="3"/>
+        <n v="29"/>
+        <n v="27"/>
+        <n v="31"/>
+        <n v="18"/>
+        <n v="26"/>
+        <n v="30"/>
+        <n v="9"/>
+        <n v="6"/>
+        <n v="21"/>
+        <n v="28"/>
+        <n v="2"/>
+        <n v="11"/>
+        <n v="16"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="avg_daily_steps" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="916" maxValue="16040"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kevin Bray" refreshedDate="45114.465401041663" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{AA363852-2C05-4509-B913-B779FCC19C92}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:C34" sheet="full_day-partial_day_wear"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Full Day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="30" count="20">
+        <n v="30"/>
+        <n v="27"/>
+        <n v="6"/>
+        <n v="23"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="0"/>
+        <n v="5"/>
+        <n v="3"/>
+        <n v="22"/>
+        <n v="24"/>
+        <n v="2"/>
+        <n v="7"/>
+        <n v="19"/>
+        <n v="18"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="25"/>
+        <n v="20"/>
+        <n v="13"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Partial Day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="31" count="18">
+        <n v="1"/>
+        <n v="4"/>
+        <n v="25"/>
+        <n v="3"/>
+        <n v="29"/>
+        <n v="27"/>
+        <n v="31"/>
+        <n v="18"/>
+        <n v="26"/>
+        <n v="30"/>
+        <n v="9"/>
+        <n v="6"/>
+        <n v="21"/>
+        <n v="28"/>
+        <n v="2"/>
+        <n v="11"/>
+        <n v="16"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16040"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14763"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12117"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11371"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="11323"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10985"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="10814"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="9795"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="9520"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="9372"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="8718"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="8613"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="9"/>
+    <n v="8572"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="8304"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="10"/>
+    <n v="7685"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7556"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="11"/>
+    <n v="7283"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="7269"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7199"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="7047"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="6862"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="6482"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5744"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="5650"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="5567"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="8"/>
+    <x v="13"/>
+    <n v="4797"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="16"/>
+    <x v="14"/>
+    <n v="4717"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="3838"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="17"/>
+    <x v="11"/>
+    <n v="2580"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="2520"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="18"/>
+    <x v="15"/>
+    <n v="2267"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="19"/>
+    <x v="16"/>
+    <n v="1854"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="3"/>
+    <x v="17"/>
+    <n v="916"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="17"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3562CB83-1AA8-4602-A916-DB0EEAA95BB4}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="2"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="25"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="21">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Full Day" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Partial Day" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25047C97-C0AE-4F97-B74C-4AB023E768A5}" name="PivotTable13" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0">
+      <items count="21">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Partial Day" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Full Day" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2E34139-E8A3-45E0-8CBE-2C61990EC9B2}" name="PivotTable14" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Full Day" fld="0" baseField="0" baseItem="1"/>
+    <dataField name="Sum of Partial Day" fld="1" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,19 +3531,938 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C1CE10-0959-42B8-896C-5B1002F14EEC}">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100DE052-12B3-4D66-86B9-BE05F1598DF5}">
+  <dimension ref="A3:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1503960366</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1624580081</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1644430081</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1844505072</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1927972279</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2022484408</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2026352035</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2320127002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2347167796</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2873212765</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3372868164</v>
+      </c>
+      <c r="B14" s="1">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>3977333714</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>4020332650</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>4057192912</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>4319703577</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>4388161847</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>4445114986</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>4558609924</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4702921684</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>5553957443</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>5577150313</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>6117666160</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>6290855005</v>
+      </c>
+      <c r="B26" s="1">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>6775888955</v>
+      </c>
+      <c r="B27" s="1">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>6962181067</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>7007744171</v>
+      </c>
+      <c r="B29" s="1">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>7086361926</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>8053475328</v>
+      </c>
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>8253242879</v>
+      </c>
+      <c r="B32" s="1">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>8378563200</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>8583815059</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>8792009665</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>8877689391</v>
+      </c>
+      <c r="B36" s="1">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1">
+        <v>478</v>
+      </c>
+      <c r="C37" s="1">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19D7F41-057C-4970-A606-2CDCC00555F9}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5C75D-55D5-43FF-99C2-4B53F834C08E}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5553957443</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8378563200</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6962181067</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2026352035</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3977333714</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4445114986</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4702921684</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5577150313</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4319703577</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1503960366</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7086361926</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4388161847</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6117666160</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8792009665</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2347167796</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4020332650</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1927972279</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4558609924</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1644430081</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1844505072</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6775888955</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8053475328</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7007744171</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2320127002</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6290855005</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8253242879</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8877689391</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1624580081</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2022484408</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2873212765</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3372868164</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4057192912</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8583815059</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7FD304-42E4-46BB-A9AD-E183D6795B5E}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,125 +4470,125 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8877689391</v>
+        <v>1844505072</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>10.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>16040</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8053475328</v>
+        <v>2026352035</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>8.4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>31.5</v>
       </c>
       <c r="D3">
-        <v>14763</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1503960366</v>
+        <v>6117666160</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>31.4</v>
       </c>
       <c r="D4">
-        <v>12117</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2022484408</v>
+        <v>4319703577</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>7.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>25.3</v>
       </c>
       <c r="D5">
-        <v>11371</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7007744171</v>
+        <v>5553957443</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>7.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>42.4</v>
       </c>
       <c r="D6">
-        <v>11323</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3977333714</v>
+        <v>7086361926</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>13.3</v>
       </c>
       <c r="D7">
-        <v>10985</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4388161847</v>
+        <v>6962181067</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D8">
-        <v>10814</v>
+        <v>9795</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6962181067</v>
+        <v>8378563200</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D9">
-        <v>9795</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -711,10 +4596,10 @@
         <v>2347167796</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>44.5</v>
       </c>
       <c r="D10">
         <v>9520</v>
@@ -722,347 +4607,454 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7086361926</v>
+        <v>8792009665</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D11">
-        <v>9372</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8378563200</v>
+        <v>5577150313</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>28.6</v>
       </c>
       <c r="D12">
-        <v>8718</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5553957443</v>
+        <v>4702921684</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>20.7</v>
       </c>
       <c r="D13">
-        <v>8613</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4702921684</v>
+        <v>1927972279</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>20.8</v>
       </c>
       <c r="D14">
-        <v>8572</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5577150313</v>
+        <v>4388161847</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>8304</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4558609924</v>
+        <v>4445114986</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>6.4</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>31.6</v>
       </c>
       <c r="D16">
-        <v>7685</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2873212765</v>
+        <v>1503960366</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>22.9</v>
       </c>
       <c r="D17">
-        <v>7556</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1644430081</v>
+        <v>6775888955</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>5.8</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>19.3</v>
       </c>
       <c r="D18">
-        <v>7283</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4319703577</v>
+        <v>4020332650</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>30.4</v>
       </c>
       <c r="D19">
-        <v>7269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8583815059</v>
+        <v>8053475328</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="D20">
-        <v>7199</v>
+        <v>14763</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>6117666160</v>
+        <v>3977333714</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>167.5</v>
       </c>
       <c r="D21">
-        <v>7047</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3372868164</v>
+        <v>1644430081</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>6862</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>8253242879</v>
+        <v>4558609924</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>2.1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="D23">
-        <v>6482</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1624580081</v>
+        <v>7007744171</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>5744</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>6290855005</v>
+        <v>2320127002</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>5650</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2026352035</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>31</v>
+        <v>6290855005</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>5567</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4445114986</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>28</v>
+        <v>8253242879</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>4797</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2320127002</v>
-      </c>
-      <c r="B28">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
+        <v>2022484408</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>4717</v>
+        <v>11371</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4057192912</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+        <v>2873212765</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>3838</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1844505072</v>
-      </c>
-      <c r="B30">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
+        <v>8877689391</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>2580</v>
+        <v>16040</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>6775888955</v>
-      </c>
-      <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
+        <v>1624580081</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>2520</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4020332650</v>
-      </c>
-      <c r="B32">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>11</v>
+        <v>4057192912</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>2267</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>8792009665</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>16</v>
+        <v>8583815059</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>1854</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1927972279</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
+        <v>3372868164</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>916</v>
+        <v>6862</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E41253-C306-4CE5-B870-62B546BE98BC}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFF8114-8464-4A5E-A418-800BFC23C7AC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1195,7 +5187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B378DD47-F570-43FB-8CD6-C105F6489B66}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -1486,7 +5478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AD253A-78C1-4EE0-97EA-7D1FEA5D7C9E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1594,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E001065-C5E2-455C-BBDD-7DE6CBBF5C0B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1713,7 +5705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D777BDFE-BB88-4082-A8A8-B0B8FB31950A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1860,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D1836-B71E-42BF-B5BF-B4B10973FAD0}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -2358,11 +6350,603 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AAD83C-EBD9-449A-816D-898F803A2334}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5253A9-3D52-498E-B8A1-0E7CC8A182BA}">
+  <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>462</v>
+      </c>
+      <c r="B4" s="1">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6A6AA-CAEE-488B-9471-F71E28765320}">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>478</v>
+      </c>
+      <c r="B4" s="1">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C1CE10-0959-42B8-896C-5B1002F14EEC}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8877689391</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>16040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8053475328</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1503960366</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>12117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022484408</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7007744171</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>11323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3977333714</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>10985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4388161847</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>10814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6962181067</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>9795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2347167796</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7086361926</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8378563200</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>8718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5553957443</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4702921684</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5577150313</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4558609924</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2873212765</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1644430081</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4319703577</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>7269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8583815059</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6117666160</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3372868164</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8253242879</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1624580081</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6290855005</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2026352035</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4445114986</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2320127002</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4057192912</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1844505072</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6775888955</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4020332650</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8792009665</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1927972279</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AAD83C-EBD9-449A-816D-898F803A2334}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2374,7 +6958,7 @@
     <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2415,10 +6999,13 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2456,10 +7043,305 @@
         <v>19</v>
       </c>
       <c r="M2">
-        <v>514</v>
+        <v>34</v>
       </c>
       <c r="N2">
+        <v>478</v>
+      </c>
+      <c r="O2">
         <v>940</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1361A1D-F512-4178-A49D-07C912124255}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8253242879</v>
+      </c>
+      <c r="B2" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8583815059</v>
+      </c>
+      <c r="B3" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6290855005</v>
+      </c>
+      <c r="B4" s="4">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022484408</v>
+      </c>
+      <c r="B5" s="4">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1624580081</v>
+      </c>
+      <c r="B6" s="4">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2873212765</v>
+      </c>
+      <c r="B7" s="4">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2320127002</v>
+      </c>
+      <c r="B8" s="4">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8877689391</v>
+      </c>
+      <c r="B9" s="4">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3372868164</v>
+      </c>
+      <c r="B10" s="4">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4558609924</v>
+      </c>
+      <c r="B11" s="4">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8053475328</v>
+      </c>
+      <c r="B12" s="4">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7007744171</v>
+      </c>
+      <c r="B13" s="4">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1644430081</v>
+      </c>
+      <c r="B14" s="4">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6775888955</v>
+      </c>
+      <c r="B15" s="4">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1927972279</v>
+      </c>
+      <c r="B16" s="4">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4020332650</v>
+      </c>
+      <c r="B17" s="4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1844505072</v>
+      </c>
+      <c r="B18" s="4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4057192912</v>
+      </c>
+      <c r="B19" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8792009665</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1503960366</v>
+      </c>
+      <c r="B21" s="4">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4388161847</v>
+      </c>
+      <c r="B22" s="4">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6117666160</v>
+      </c>
+      <c r="B23" s="4">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7086361926</v>
+      </c>
+      <c r="B24" s="4">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4445114986</v>
+      </c>
+      <c r="B25" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4702921684</v>
+      </c>
+      <c r="B26" s="4">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5577150313</v>
+      </c>
+      <c r="B27" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4319703577</v>
+      </c>
+      <c r="B28" s="4">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2347167796</v>
+      </c>
+      <c r="B29" s="4">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3977333714</v>
+      </c>
+      <c r="B30" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6962181067</v>
+      </c>
+      <c r="B31" s="4">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2026352035</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8378563200</v>
+      </c>
+      <c r="B33" s="4">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5553957443</v>
+      </c>
+      <c r="B34" s="4">
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +7349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF31A9FB-10D6-4331-9AB1-9BD29416EC68}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -2758,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C04C7-3C33-4A71-8932-5AFE7FFA5661}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2866,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A6F2BE-FA3A-493B-B886-E2A99CE31446}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -3222,1119 +8104,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19D7F41-057C-4970-A606-2CDCC00555F9}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA5C75D-55D5-43FF-99C2-4B53F834C08E}">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5553957443</v>
-      </c>
-      <c r="B2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8378563200</v>
-      </c>
-      <c r="B3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6962181067</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2026352035</v>
-      </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3977333714</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4445114986</v>
-      </c>
-      <c r="B7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4702921684</v>
-      </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5577150313</v>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4319703577</v>
-      </c>
-      <c r="B10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1503960366</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7086361926</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4388161847</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>6117666160</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8792009665</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2347167796</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4020332650</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1927972279</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>4558609924</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1644430081</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1844505072</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>6775888955</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>8053475328</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7007744171</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2320127002</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>6290855005</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8253242879</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>8877689391</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1624580081</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2022484408</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2873212765</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3372868164</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4057192912</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>8583815059</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7FD304-42E4-46BB-A9AD-E183D6795B5E}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1844505072</v>
-      </c>
-      <c r="B2">
-        <v>10.9</v>
-      </c>
-      <c r="C2">
-        <v>309</v>
-      </c>
-      <c r="D2">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2026352035</v>
-      </c>
-      <c r="B3">
-        <v>8.4</v>
-      </c>
-      <c r="C3">
-        <v>31.5</v>
-      </c>
-      <c r="D3">
-        <v>5567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6117666160</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>31.4</v>
-      </c>
-      <c r="D4">
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4319703577</v>
-      </c>
-      <c r="B5">
-        <v>7.9</v>
-      </c>
-      <c r="C5">
-        <v>25.3</v>
-      </c>
-      <c r="D5">
-        <v>7269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5553957443</v>
-      </c>
-      <c r="B6">
-        <v>7.7</v>
-      </c>
-      <c r="C6">
-        <v>42.4</v>
-      </c>
-      <c r="D6">
-        <v>8613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7086361926</v>
-      </c>
-      <c r="B7">
-        <v>7.6</v>
-      </c>
-      <c r="C7">
-        <v>13.3</v>
-      </c>
-      <c r="D7">
-        <v>9372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6962181067</v>
-      </c>
-      <c r="B8">
-        <v>7.5</v>
-      </c>
-      <c r="C8">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D8">
-        <v>9795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8378563200</v>
-      </c>
-      <c r="B9">
-        <v>7.4</v>
-      </c>
-      <c r="C9">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="D9">
-        <v>8718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2347167796</v>
-      </c>
-      <c r="B10">
-        <v>7.4</v>
-      </c>
-      <c r="C10">
-        <v>44.5</v>
-      </c>
-      <c r="D10">
-        <v>9520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8792009665</v>
-      </c>
-      <c r="B11">
-        <v>7.3</v>
-      </c>
-      <c r="C11">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D11">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5577150313</v>
-      </c>
-      <c r="B12">
-        <v>7.2</v>
-      </c>
-      <c r="C12">
-        <v>28.6</v>
-      </c>
-      <c r="D12">
-        <v>8304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4702921684</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>20.7</v>
-      </c>
-      <c r="D13">
-        <v>8572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1927972279</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>20.8</v>
-      </c>
-      <c r="D14">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4388161847</v>
-      </c>
-      <c r="B15">
-        <v>6.7</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>10814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4445114986</v>
-      </c>
-      <c r="B16">
-        <v>6.4</v>
-      </c>
-      <c r="C16">
-        <v>31.6</v>
-      </c>
-      <c r="D16">
-        <v>4797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1503960366</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>22.9</v>
-      </c>
-      <c r="D17">
-        <v>12117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6775888955</v>
-      </c>
-      <c r="B18">
-        <v>5.8</v>
-      </c>
-      <c r="C18">
-        <v>19.3</v>
-      </c>
-      <c r="D18">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>4020332650</v>
-      </c>
-      <c r="B19">
-        <v>5.8</v>
-      </c>
-      <c r="C19">
-        <v>30.4</v>
-      </c>
-      <c r="D19">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8053475328</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>4.7</v>
-      </c>
-      <c r="D20">
-        <v>14763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3977333714</v>
-      </c>
-      <c r="B21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C21">
-        <v>167.5</v>
-      </c>
-      <c r="D21">
-        <v>10985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1644430081</v>
-      </c>
-      <c r="B22">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C22">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>7283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>4558609924</v>
-      </c>
-      <c r="B23">
-        <v>2.1</v>
-      </c>
-      <c r="C23">
-        <v>12.4</v>
-      </c>
-      <c r="D23">
-        <v>7685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7007744171</v>
-      </c>
-      <c r="B24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>11323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2320127002</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>4717</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>6290855005</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8253242879</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27">
-        <v>6482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2022484408</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>11371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2873212765</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>7556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>8877689391</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>16040</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1624580081</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>5744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4057192912</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>8583815059</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>7199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>3372868164</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>6862</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E41253-C306-4CE5-B870-62B546BE98BC}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/bellabeat_viz_sheet.xlsx
+++ b/bellabeat_viz_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1bra\Documents\GitHub\bellabeat_case_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BC4EF-672A-4DA2-B246-8BC66D91CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501C448-C26A-44B2-BCB2-8D05C046A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" firstSheet="1" activeTab="5" xr2:uid="{96EE894B-1173-4472-B7C3-558D6B05614D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="5" xr2:uid="{96EE894B-1173-4472-B7C3-558D6B05614D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
@@ -35,8 +35,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId20"/>
-    <pivotCache cacheId="29" r:id="rId21"/>
+    <pivotCache cacheId="0" r:id="rId20"/>
+    <pivotCache cacheId="1" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -248,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -279,14 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,8 +368,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -425,8 +425,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -467,6 +468,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$4</c:f>
@@ -520,6 +579,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$4</c:f>
@@ -550,8 +667,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -616,6 +734,7 @@
         <c:axId val="700029576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2870,7 +2989,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3562CB83-1AA8-4602-A916-DB0EEAA95BB4}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3562CB83-1AA8-4602-A916-DB0EEAA95BB4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -3096,7 +3215,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25047C97-C0AE-4F97-B74C-4AB023E768A5}" name="PivotTable13" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25047C97-C0AE-4F97-B74C-4AB023E768A5}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0">
@@ -3199,7 +3318,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2E34139-E8A3-45E0-8CBE-2C61990EC9B2}" name="PivotTable14" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2E34139-E8A3-45E0-8CBE-2C61990EC9B2}" name="PivotTable14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -3550,7 +3669,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
@@ -3561,376 +3680,376 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1503960366</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1624580081</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1644430081</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1844505072</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1927972279</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>2022484408</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>2026352035</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>2320127002</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>29</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2347167796</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>2873212765</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>3372868164</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>3977333714</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>4020332650</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>4057192912</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>4319703577</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>4388161847</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>4445114986</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>4558609924</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>4702921684</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>5553957443</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>5577150313</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>6117666160</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>6290855005</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>6775888955</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>6962181067</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>7007744171</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>23</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>7086361926</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>8053475328</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>27</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>8253242879</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>18</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>8378563200</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>8583815059</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>30</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>8792009665</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>13</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>8877689391</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>478</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>462</v>
       </c>
     </row>
@@ -6354,7 +6473,7 @@
   <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6395,10 +6514,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>462</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>478</v>
       </c>
     </row>
@@ -6431,10 +6550,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>478</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>462</v>
       </c>
     </row>
@@ -7063,7 +7182,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7084,7 +7203,7 @@
       <c r="A2">
         <v>8253242879</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>24</v>
       </c>
     </row>
@@ -7092,7 +7211,7 @@
       <c r="A3">
         <v>8583815059</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>24</v>
       </c>
     </row>
@@ -7100,7 +7219,7 @@
       <c r="A4">
         <v>6290855005</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>23.8</v>
       </c>
     </row>
@@ -7108,7 +7227,7 @@
       <c r="A5">
         <v>2022484408</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>23.8</v>
       </c>
     </row>
@@ -7116,7 +7235,7 @@
       <c r="A6">
         <v>1624580081</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>23.8</v>
       </c>
     </row>
@@ -7124,7 +7243,7 @@
       <c r="A7">
         <v>2873212765</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>23.8</v>
       </c>
     </row>
@@ -7132,7 +7251,7 @@
       <c r="A8">
         <v>2320127002</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>23.7</v>
       </c>
     </row>
@@ -7140,7 +7259,7 @@
       <c r="A9">
         <v>8877689391</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>23.7</v>
       </c>
     </row>
@@ -7148,7 +7267,7 @@
       <c r="A10">
         <v>3372868164</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>23.6</v>
       </c>
     </row>
@@ -7156,7 +7275,7 @@
       <c r="A11">
         <v>4558609924</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>23.4</v>
       </c>
     </row>
@@ -7164,7 +7283,7 @@
       <c r="A12">
         <v>8053475328</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>23.2</v>
       </c>
     </row>
@@ -7172,7 +7291,7 @@
       <c r="A13">
         <v>7007744171</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>23.1</v>
       </c>
     </row>
@@ -7180,7 +7299,7 @@
       <c r="A14">
         <v>1644430081</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>22.9</v>
       </c>
     </row>
@@ -7188,7 +7307,7 @@
       <c r="A15">
         <v>6775888955</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>22.8</v>
       </c>
     </row>
@@ -7196,7 +7315,7 @@
       <c r="A16">
         <v>1927972279</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>22.6</v>
       </c>
     </row>
@@ -7204,7 +7323,7 @@
       <c r="A17">
         <v>4020332650</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>22.1</v>
       </c>
     </row>
@@ -7212,7 +7331,7 @@
       <c r="A18">
         <v>1844505072</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>22.1</v>
       </c>
     </row>
@@ -7220,7 +7339,7 @@
       <c r="A19">
         <v>4057192912</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>22</v>
       </c>
     </row>
@@ -7228,7 +7347,7 @@
       <c r="A20">
         <v>8792009665</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>19.3</v>
       </c>
     </row>
@@ -7236,7 +7355,7 @@
       <c r="A21">
         <v>1503960366</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>18.8</v>
       </c>
     </row>
@@ -7244,7 +7363,7 @@
       <c r="A22">
         <v>4388161847</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>18.5</v>
       </c>
     </row>
@@ -7252,7 +7371,7 @@
       <c r="A23">
         <v>6117666160</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>18.100000000000001</v>
       </c>
     </row>
@@ -7260,7 +7379,7 @@
       <c r="A24">
         <v>7086361926</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>17.7</v>
       </c>
     </row>
@@ -7268,7 +7387,7 @@
       <c r="A25">
         <v>4445114986</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>17.5</v>
       </c>
     </row>
@@ -7276,7 +7395,7 @@
       <c r="A26">
         <v>4702921684</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>17.3</v>
       </c>
     </row>
@@ -7284,7 +7403,7 @@
       <c r="A27">
         <v>5577150313</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>17</v>
       </c>
     </row>
@@ -7292,7 +7411,7 @@
       <c r="A28">
         <v>4319703577</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>16.3</v>
       </c>
     </row>
@@ -7300,7 +7419,7 @@
       <c r="A29">
         <v>2347167796</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>16.2</v>
       </c>
     </row>
@@ -7308,7 +7427,7 @@
       <c r="A30">
         <v>3977333714</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>16</v>
       </c>
     </row>
@@ -7316,7 +7435,7 @@
       <c r="A31">
         <v>6962181067</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>15.8</v>
       </c>
     </row>
@@ -7324,7 +7443,7 @@
       <c r="A32">
         <v>2026352035</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>15.8</v>
       </c>
     </row>
@@ -7332,7 +7451,7 @@
       <c r="A33">
         <v>8378563200</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>15.7</v>
       </c>
     </row>
@@ -7340,7 +7459,7 @@
       <c r="A34">
         <v>5553957443</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>15.2</v>
       </c>
     </row>
